--- a/data/trans_dic/P42-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P42-Edad-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3914059804383551</v>
+        <v>0.389083797868972</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5363684907651978</v>
+        <v>0.5367541327854186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.553441532672009</v>
+        <v>0.5518462632894537</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3117412854540502</v>
+        <v>0.3121442270478855</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4766081070410888</v>
+        <v>0.4794146856718205</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6299284809531248</v>
+        <v>0.6291879881277707</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6470145645338808</v>
+        <v>0.64920294885509</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4591460390215516</v>
+        <v>0.4726823082163835</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.848700034233948</v>
+        <v>0.8515468994067719</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8963868937372739</v>
+        <v>0.8977776134407435</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8615451564742702</v>
+        <v>0.8647308512577073</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.736985895023025</v>
+        <v>0.7359501208747729</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9032561793179725</v>
+        <v>0.9054210137596702</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.944658847458033</v>
+        <v>0.9438233103801789</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9128389578770255</v>
+        <v>0.915343783042418</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8269858099286038</v>
+        <v>0.8252665257837344</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
         <v>0.9462554659030601</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9001122895977467</v>
+        <v>0.9001122895977468</v>
       </c>
     </row>
     <row r="11">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9086394744590912</v>
+        <v>0.9090196394961373</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9692262428961975</v>
+        <v>0.9682431836690681</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9282493286775511</v>
+        <v>0.9269790298271982</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8747949732023217</v>
+        <v>0.8742098363360028</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9487064469934777</v>
+        <v>0.9492486358425063</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.990452713874465</v>
+        <v>0.9903359826113288</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9630617180999307</v>
+        <v>0.9611498249462648</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9255304906114232</v>
+        <v>0.9237838517663339</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0.952815000439404</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9493050178065658</v>
+        <v>0.9493050178065657</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8997141894488163</v>
+        <v>0.9000230975295991</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9342220511780148</v>
+        <v>0.9306848300008871</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9346034599745827</v>
+        <v>0.9318748707748384</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9284137499625963</v>
+        <v>0.9345759466521958</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9460513809376608</v>
+        <v>0.9467779931248513</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9687506008121131</v>
+        <v>0.9690049889373457</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.96800558663286</v>
+        <v>0.9685652473214919</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9625432839764801</v>
+        <v>0.9637993869402709</v>
       </c>
     </row>
     <row r="16">
@@ -857,7 +857,7 @@
         <v>0.9348280722631001</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9309198355771513</v>
+        <v>0.9309198355771515</v>
       </c>
     </row>
     <row r="17">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8229365661180044</v>
+        <v>0.8255641898686197</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9158950262690984</v>
+        <v>0.9170912204043661</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9078888742246173</v>
+        <v>0.9078606504265215</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9100701368544121</v>
+        <v>0.9097168531076161</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8903827855305064</v>
+        <v>0.8913739199758094</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9612043727990908</v>
+        <v>0.9611402770322388</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9548473971899932</v>
+        <v>0.9557942108966172</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9482482639441784</v>
+        <v>0.9468285556038356</v>
       </c>
     </row>
     <row r="19">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7035587573486209</v>
+        <v>0.7092689202872737</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8040321581621518</v>
+        <v>0.8017632019012469</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8400869495874954</v>
+        <v>0.835858372648757</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9029869160269063</v>
+        <v>0.9008015687271638</v>
       </c>
     </row>
     <row r="21">
@@ -952,16 +952,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7908914267794753</v>
+        <v>0.7910791118777728</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8772151668168275</v>
+        <v>0.8804276922038262</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9115093104880289</v>
+        <v>0.905959427376915</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9428107908515508</v>
+        <v>0.9427667061239035</v>
       </c>
     </row>
     <row r="22">
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5109180424031782</v>
+        <v>0.5148905787869306</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6774648152585063</v>
+        <v>0.6745621278613291</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.724732995108911</v>
+        <v>0.7197662816967012</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8016890289525452</v>
+        <v>0.7982158704218547</v>
       </c>
     </row>
     <row r="24">
@@ -1016,16 +1016,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6272135543917354</v>
+        <v>0.6287438424884211</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7750126848995489</v>
+        <v>0.7691513936612402</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8195596433823281</v>
+        <v>0.82015025829732</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8570223542686252</v>
+        <v>0.8556385697481814</v>
       </c>
     </row>
     <row r="25">
@@ -1060,16 +1060,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7766540691656978</v>
+        <v>0.776297344558097</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.859655061657092</v>
+        <v>0.8605303238458164</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.860250027344613</v>
+        <v>0.8605827847695359</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8219393620610372</v>
+        <v>0.8231943605109457</v>
       </c>
     </row>
     <row r="27">
@@ -1080,16 +1080,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8042855927408341</v>
+        <v>0.8045536655509333</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.88199700183296</v>
+        <v>0.8841206173831254</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8836921828125953</v>
+        <v>0.882669712676635</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8522053137540831</v>
+        <v>0.8515774909226135</v>
       </c>
     </row>
     <row r="28">
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>182643</v>
+        <v>181559</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>229662</v>
+        <v>229827</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>216077</v>
+        <v>215454</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>93065</v>
+        <v>93185</v>
       </c>
     </row>
     <row r="7">
@@ -1261,16 +1261,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>222401</v>
+        <v>223711</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>269723</v>
+        <v>269406</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>252610</v>
+        <v>253464</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>137070</v>
+        <v>141111</v>
       </c>
     </row>
     <row r="8">
@@ -1325,16 +1325,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>529134</v>
+        <v>530909</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>541011</v>
+        <v>541850</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>482486</v>
+        <v>484270</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>270725</v>
+        <v>270345</v>
       </c>
     </row>
     <row r="11">
@@ -1345,16 +1345,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>563148</v>
+        <v>564497</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>570145</v>
+        <v>569641</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>511212</v>
+        <v>512614</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>303786</v>
+        <v>303154</v>
       </c>
     </row>
     <row r="12">
@@ -1409,16 +1409,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>625802</v>
+        <v>626064</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>687052</v>
+        <v>686356</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>609889</v>
+        <v>609054</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>371777</v>
+        <v>371529</v>
       </c>
     </row>
     <row r="15">
@@ -1429,16 +1429,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>653397</v>
+        <v>653770</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>702099</v>
+        <v>702016</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>632761</v>
+        <v>631505</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>393339</v>
+        <v>392597</v>
       </c>
     </row>
     <row r="16">
@@ -1493,16 +1493,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>463930</v>
+        <v>464090</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>572669</v>
+        <v>570500</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>601772</v>
+        <v>600016</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>475756</v>
+        <v>478914</v>
       </c>
     </row>
     <row r="19">
@@ -1513,16 +1513,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>487824</v>
+        <v>488198</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>593834</v>
+        <v>593990</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>623279</v>
+        <v>623640</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>493246</v>
+        <v>493889</v>
       </c>
     </row>
     <row r="20">
@@ -1577,16 +1577,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>331621</v>
+        <v>332680</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>409183</v>
+        <v>409718</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>448095</v>
+        <v>448081</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>407188</v>
+        <v>407030</v>
       </c>
     </row>
     <row r="23">
@@ -1597,16 +1597,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>358800</v>
+        <v>359200</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>429426</v>
+        <v>429397</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>471272</v>
+        <v>471739</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>424270</v>
+        <v>423635</v>
       </c>
     </row>
     <row r="24">
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>240642</v>
+        <v>242595</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>282299</v>
+        <v>281502</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>315514</v>
+        <v>313926</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>315703</v>
+        <v>314939</v>
       </c>
     </row>
     <row r="27">
@@ -1681,16 +1681,16 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>270513</v>
+        <v>270577</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>307994</v>
+        <v>309122</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>342338</v>
+        <v>340254</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>329626</v>
+        <v>329611</v>
       </c>
     </row>
     <row r="28">
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>165858</v>
+        <v>167147</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>261331</v>
+        <v>260212</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>287432</v>
+        <v>285462</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>320217</v>
+        <v>318830</v>
       </c>
     </row>
     <row r="31">
@@ -1765,16 +1765,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>203610</v>
+        <v>204107</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>298960</v>
+        <v>296699</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>325041</v>
+        <v>325275</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>342319</v>
+        <v>341766</v>
       </c>
     </row>
     <row r="32">
@@ -1829,16 +1829,16 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2612741</v>
+        <v>2611541</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3040766</v>
+        <v>3043862</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>3025581</v>
+        <v>3026751</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2301244</v>
+        <v>2304758</v>
       </c>
     </row>
     <row r="35">
@@ -1849,16 +1849,16 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2705696</v>
+        <v>2706598</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>3119794</v>
+        <v>3127305</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>3108029</v>
+        <v>3104433</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2385982</v>
+        <v>2384225</v>
       </c>
     </row>
     <row r="36">
